--- a/Code/Results/Cases/Case_3_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8764340013514129</v>
+        <v>0.2935490919770132</v>
       </c>
       <c r="C2">
-        <v>0.1334589427037969</v>
+        <v>0.04457165816555175</v>
       </c>
       <c r="D2">
-        <v>0.08700861602842025</v>
+        <v>0.03334822985983266</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3110524925290292</v>
+        <v>0.5500782417717929</v>
       </c>
       <c r="G2">
-        <v>0.0007994559427009272</v>
+        <v>0.002413447129026704</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1703008776651735</v>
+        <v>0.4222757950674723</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9425758409074376</v>
+        <v>0.2990256334740593</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6751222455794306</v>
+        <v>1.189236620751288</v>
       </c>
       <c r="O2">
-        <v>0.8477632128095536</v>
+        <v>1.857100913325638</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7637499070273464</v>
+        <v>0.2585797311558338</v>
       </c>
       <c r="C3">
-        <v>0.1179917018606602</v>
+        <v>0.03959081992960023</v>
       </c>
       <c r="D3">
-        <v>0.07703037284944259</v>
+        <v>0.03002597117231431</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2994627311755238</v>
+        <v>0.5519381186377856</v>
       </c>
       <c r="G3">
-        <v>0.0008022197058648094</v>
+        <v>0.002415292165664462</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1764277300106052</v>
+        <v>0.4274429606471148</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8229334298178514</v>
+        <v>0.2615162650164677</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6957947032811731</v>
+        <v>1.199097099743849</v>
       </c>
       <c r="O3">
-        <v>0.8477971190808233</v>
+        <v>1.873458363975587</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6945113996710859</v>
+        <v>0.2370770665903308</v>
       </c>
       <c r="C4">
-        <v>0.1084779665590077</v>
+        <v>0.03651435465314989</v>
       </c>
       <c r="D4">
-        <v>0.07088564449925627</v>
+        <v>0.02797201785985237</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2930247632540741</v>
+        <v>0.5534368788419073</v>
       </c>
       <c r="G4">
-        <v>0.0008039752762381482</v>
+        <v>0.002416486112989779</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1806246083642087</v>
+        <v>0.430852329168431</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7493961261928348</v>
+        <v>0.2384247619132083</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.709300043452366</v>
+        <v>1.205565533908441</v>
       </c>
       <c r="O4">
-        <v>0.8499119216017021</v>
+        <v>1.884619283030048</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6662780094601999</v>
+        <v>0.2283073025316469</v>
       </c>
       <c r="C5">
-        <v>0.1045959383140485</v>
+        <v>0.03525616233703488</v>
       </c>
       <c r="D5">
-        <v>0.06837670952436525</v>
+        <v>0.0271315237780172</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.290564269201802</v>
+        <v>0.5541373771130296</v>
       </c>
       <c r="G5">
-        <v>0.0008047056150421451</v>
+        <v>0.002416988060423152</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1824406303223487</v>
+        <v>0.4323011847498197</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7194038229845461</v>
+        <v>0.2290001859672941</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7150030651778252</v>
+        <v>1.208305678571108</v>
       </c>
       <c r="O5">
-        <v>0.8512795474326253</v>
+        <v>1.889448394448493</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6615886247358276</v>
+        <v>0.2268506702042998</v>
       </c>
       <c r="C6">
-        <v>0.1039509974572468</v>
+        <v>0.03504697030781756</v>
       </c>
       <c r="D6">
-        <v>0.06795979587971601</v>
+        <v>0.02699175089325223</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2901653386397527</v>
+        <v>0.5542591151725276</v>
       </c>
       <c r="G6">
-        <v>0.0008048277944167525</v>
+        <v>0.002417072340332862</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1827484638098333</v>
+        <v>0.4325453600367783</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7144219284545414</v>
+        <v>0.2274343791988969</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7159619597104978</v>
+        <v>1.208766973819781</v>
       </c>
       <c r="O6">
-        <v>0.8515366006797223</v>
+        <v>1.890267232375194</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6941307148519797</v>
+        <v>0.2369588230255602</v>
       </c>
       <c r="C7">
-        <v>0.1084256339619714</v>
+        <v>0.03649740438989113</v>
       </c>
       <c r="D7">
-        <v>0.07085182847427518</v>
+        <v>0.02796069673581059</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2929909297770905</v>
+        <v>0.5534459626152923</v>
       </c>
       <c r="G7">
-        <v>0.0008039850650965583</v>
+        <v>0.002416492820308932</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1806486763333321</v>
+        <v>0.4308716280022971</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7489917495052083</v>
+        <v>0.2382977170606324</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7093761548691369</v>
+        <v>1.205602066418571</v>
       </c>
       <c r="O7">
-        <v>0.8499283446022332</v>
+        <v>1.884683272610332</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8375874313591112</v>
+        <v>0.281498525036028</v>
       </c>
       <c r="C8">
-        <v>0.128128769758419</v>
+        <v>0.04285808615233577</v>
       </c>
       <c r="D8">
-        <v>0.08357163189655381</v>
+        <v>0.03220566343152598</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3069109723992511</v>
+        <v>0.5506454892541015</v>
       </c>
       <c r="G8">
-        <v>0.0008003968420563851</v>
+        <v>0.002414070644902575</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1723209227383542</v>
+        <v>0.4240082982276583</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9013352078270316</v>
+        <v>0.2861053517272865</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6820785617449872</v>
+        <v>1.192550627687559</v>
       </c>
       <c r="O8">
-        <v>0.8473275724036995</v>
+        <v>1.862509033383077</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.11878836669888</v>
+        <v>0.3685687087306064</v>
       </c>
       <c r="C9">
-        <v>0.1666777053257107</v>
+        <v>0.05518428851182478</v>
       </c>
       <c r="D9">
-        <v>0.1083906995112045</v>
+        <v>0.04041664521025723</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3399434515620641</v>
+        <v>0.547984267417938</v>
       </c>
       <c r="G9">
-        <v>0.00079381626469537</v>
+        <v>0.002409803484515777</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1596105270517683</v>
+        <v>0.4124279624439708</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.199778387518961</v>
+        <v>0.3793514906310804</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6352178869257443</v>
+        <v>1.170238259266817</v>
       </c>
       <c r="O9">
-        <v>0.859817126818001</v>
+        <v>1.827893189477791</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.325746645893133</v>
+        <v>0.4323479115265627</v>
       </c>
       <c r="C10">
-        <v>0.1950139146486691</v>
+        <v>0.06414803387042411</v>
       </c>
       <c r="D10">
-        <v>0.1265784961242531</v>
+        <v>0.0463783453306803</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3682246235457853</v>
+        <v>0.5477548853551895</v>
       </c>
       <c r="G10">
-        <v>0.0007892461183934571</v>
+        <v>0.002406959897230769</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1527232444560269</v>
+        <v>0.4050656851707721</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.419329895392849</v>
+        <v>0.4475264653480622</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6051787707976999</v>
+        <v>1.155840378973146</v>
       </c>
       <c r="O10">
-        <v>0.8811324805209182</v>
+        <v>1.807870475696276</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.420078608038921</v>
+        <v>0.4613161491629967</v>
       </c>
       <c r="C11">
-        <v>0.207924424912477</v>
+        <v>0.06820531245364236</v>
       </c>
       <c r="D11">
-        <v>0.1348493218592495</v>
+        <v>0.04907472939170532</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3820817568339834</v>
+        <v>0.5480253861708348</v>
       </c>
       <c r="G11">
-        <v>0.000787221421675921</v>
+        <v>0.002405728980213843</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1501788715625345</v>
+        <v>0.4019653067373596</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.519383898459893</v>
+        <v>0.4784637044757574</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5925415672723631</v>
+        <v>1.149722489756314</v>
       </c>
       <c r="O11">
-        <v>0.8937952841922794</v>
+        <v>1.799937080743561</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.455835096209682</v>
+        <v>0.4722785977968726</v>
       </c>
       <c r="C12">
-        <v>0.2128176353600537</v>
+        <v>0.06973870583503583</v>
       </c>
       <c r="D12">
-        <v>0.1379814189519948</v>
+        <v>0.05009349086955694</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3874822504283841</v>
+        <v>0.5481817118637764</v>
       </c>
       <c r="G12">
-        <v>0.0007864622665181729</v>
+        <v>0.00240527182791948</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1493050340330129</v>
+        <v>0.4008270606173916</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.557307033372609</v>
+        <v>0.4901673469138359</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5879106695133132</v>
+        <v>1.147467818691993</v>
       </c>
       <c r="O12">
-        <v>0.8990460048189988</v>
+        <v>1.797101940213224</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.448132600311737</v>
+        <v>0.4699179692720463</v>
       </c>
       <c r="C13">
-        <v>0.2117635815923364</v>
+        <v>0.06940859728059934</v>
       </c>
       <c r="D13">
-        <v>0.1373068518899743</v>
+        <v>0.04987418554155454</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3863121755310104</v>
+        <v>0.5481456475958453</v>
       </c>
       <c r="G13">
-        <v>0.0007866254323970292</v>
+        <v>0.002405369885451027</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1494891602205328</v>
+        <v>0.4010706096198611</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.549137905317821</v>
+        <v>0.4876472860681247</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.588901031761651</v>
+        <v>1.147950643915635</v>
       </c>
       <c r="O13">
-        <v>0.8978944256876247</v>
+        <v>1.797705017799601</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.423019564190923</v>
+        <v>0.4622181845377042</v>
       </c>
       <c r="C14">
-        <v>0.2083268982614612</v>
+        <v>0.06833152643385176</v>
       </c>
       <c r="D14">
-        <v>0.1351069959125368</v>
+        <v>0.04915858993018674</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3825229283537084</v>
+        <v>0.5480371671456936</v>
       </c>
       <c r="G14">
-        <v>0.0007871588157003312</v>
+        <v>0.002405691190600271</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1501051538245299</v>
+        <v>0.4018709448967641</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.522503104471184</v>
+        <v>0.4794268070725423</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5921574434181025</v>
+        <v>1.149535753491001</v>
       </c>
       <c r="O14">
-        <v>0.8942179612352135</v>
+        <v>1.799700443195547</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.40764192231245</v>
+        <v>0.4575008867189467</v>
       </c>
       <c r="C15">
-        <v>0.2062224304339821</v>
+        <v>0.06767139507496722</v>
       </c>
       <c r="D15">
-        <v>0.1337595518811554</v>
+        <v>0.04871996573632487</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3802221634734835</v>
+        <v>0.547977737874632</v>
       </c>
       <c r="G15">
-        <v>0.0007874865043071539</v>
+        <v>0.002405889166104409</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1504942974969019</v>
+        <v>0.4023658364166636</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.506193340907174</v>
+        <v>0.4743899923327035</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5941724213806481</v>
+        <v>1.150514757016495</v>
       </c>
       <c r="O15">
-        <v>0.8920262418082103</v>
+        <v>1.800944718768847</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.319586264439607</v>
+        <v>0.4304537998334013</v>
       </c>
       <c r="C16">
-        <v>0.1941707043498582</v>
+        <v>0.0638824643393292</v>
       </c>
       <c r="D16">
-        <v>0.1260379646399912</v>
+        <v>0.04620181129507728</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.367339868129001</v>
+        <v>0.547744749580815</v>
       </c>
       <c r="G16">
-        <v>0.0007893795081684307</v>
+        <v>0.002407041597940672</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1529017931873931</v>
+        <v>0.4052733103112338</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.412795497054105</v>
+        <v>0.4455030565208347</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6060258912612042</v>
+        <v>1.156248881725048</v>
       </c>
       <c r="O16">
-        <v>0.8803670720229491</v>
+        <v>1.808412594643073</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.265620258377794</v>
+        <v>0.413849210709202</v>
       </c>
       <c r="C17">
-        <v>0.1867834847954839</v>
+        <v>0.06155280270046148</v>
       </c>
       <c r="D17">
-        <v>0.1213006475086047</v>
+        <v>0.04465296521908613</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3596983095527193</v>
+        <v>0.5476978197700006</v>
       </c>
       <c r="G17">
-        <v>0.0007905545327846255</v>
+        <v>0.002407764594585449</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1545329710160388</v>
+        <v>0.4071206849023952</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.355551065891632</v>
+        <v>0.4277619163696897</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.613565529279569</v>
+        <v>1.159877135269937</v>
       </c>
       <c r="O17">
-        <v>0.8739944523942853</v>
+        <v>1.813294918201422</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.234597376766374</v>
+        <v>0.4042944730280169</v>
       </c>
       <c r="C18">
-        <v>0.1825363671078719</v>
+        <v>0.06021093002752309</v>
       </c>
       <c r="D18">
-        <v>0.1185755618953266</v>
+        <v>0.04376064262885393</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3553957882819248</v>
+        <v>0.5477061100987584</v>
       </c>
       <c r="G18">
-        <v>0.0007912355012689344</v>
+        <v>0.002408186341605349</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1555262760284108</v>
+        <v>0.4082066585233761</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.32264184041216</v>
+        <v>0.417550579950273</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.617998440425815</v>
+        <v>1.162004654568456</v>
       </c>
       <c r="O18">
-        <v>0.8706064642192786</v>
+        <v>1.81621369616704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.224096226505935</v>
+        <v>0.401058699696506</v>
       </c>
       <c r="C19">
-        <v>0.1810986377548289</v>
+        <v>0.05975626889554064</v>
       </c>
       <c r="D19">
-        <v>0.1176528264971495</v>
+        <v>0.04345826716863144</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3539546404496861</v>
+        <v>0.5477149772487024</v>
       </c>
       <c r="G19">
-        <v>0.0007914669533914125</v>
+        <v>0.002408330152320549</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1558719063011544</v>
+        <v>0.4085783707917052</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.311501866539032</v>
+        <v>0.4140919986084839</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6195156896458798</v>
+        <v>1.162731978173653</v>
       </c>
       <c r="O19">
-        <v>0.8695061304681531</v>
+        <v>1.817220936037401</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.271363220308359</v>
+        <v>0.4156172390185873</v>
       </c>
       <c r="C20">
-        <v>0.1875696694123832</v>
+        <v>0.06180099771914627</v>
       </c>
       <c r="D20">
-        <v>0.1218049709390101</v>
+        <v>0.04481799477794368</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3605020983170846</v>
+        <v>0.5476991639258486</v>
       </c>
       <c r="G20">
-        <v>0.0007904289206816159</v>
+        <v>0.002407687020034088</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.154353591829274</v>
+        <v>0.4069216053965654</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.361643086653885</v>
+        <v>0.4296512311408094</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6127529064031378</v>
+        <v>1.159486695360471</v>
       </c>
       <c r="O20">
-        <v>0.8746439163077468</v>
+        <v>1.812763739705403</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.430394851925143</v>
+        <v>0.4644799986984367</v>
       </c>
       <c r="C21">
-        <v>0.209336207835932</v>
+        <v>0.06864797057968985</v>
       </c>
       <c r="D21">
-        <v>0.1357531394272229</v>
+        <v>0.04936884057775615</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3836316807597129</v>
+        <v>0.5480675679293654</v>
       </c>
       <c r="G21">
-        <v>0.0007870019451051309</v>
+        <v>0.00240559657230638</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1499217469294329</v>
+        <v>0.4016348951985087</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.530325369220293</v>
+        <v>0.4818416819609297</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5911967066909369</v>
+        <v>1.149068484991481</v>
       </c>
       <c r="O21">
-        <v>0.8952852237742803</v>
+        <v>1.799109749293308</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.534539632011644</v>
+        <v>0.4963723835095095</v>
       </c>
       <c r="C22">
-        <v>0.2235875621185102</v>
+        <v>0.07310528155139195</v>
       </c>
       <c r="D22">
-        <v>0.1448700134231302</v>
+        <v>0.05232964626880232</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3996458547883819</v>
+        <v>0.5486224649527003</v>
       </c>
       <c r="G22">
-        <v>0.0007848061191990663</v>
+        <v>0.002404282604999409</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1475504161839645</v>
+        <v>0.3983884068823755</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.64077685960649</v>
+        <v>0.5158831095178016</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5780126408484563</v>
+        <v>1.14262118251618</v>
       </c>
       <c r="O22">
-        <v>0.911445722469665</v>
+        <v>1.79117155399797</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.478933628701299</v>
+        <v>0.4793549112376922</v>
       </c>
       <c r="C23">
-        <v>0.2159785168204422</v>
+        <v>0.07072796601600828</v>
       </c>
       <c r="D23">
-        <v>0.1400038962420922</v>
+        <v>0.05075065575985604</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3910130411623882</v>
+        <v>0.548297567163047</v>
       </c>
       <c r="G23">
-        <v>0.0007859741428072167</v>
+        <v>0.002404979125061675</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.148766263745717</v>
+        <v>0.4001020149059933</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.581804615570235</v>
+        <v>0.497721018264059</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5849641685057989</v>
+        <v>1.146029158217296</v>
       </c>
       <c r="O23">
-        <v>0.9025662082978556</v>
+        <v>1.795318116196484</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.268766818827743</v>
+        <v>0.4148179399627452</v>
       </c>
       <c r="C24">
-        <v>0.187214235782065</v>
+        <v>0.06168879659279014</v>
       </c>
       <c r="D24">
-        <v>0.1215769711492243</v>
+        <v>0.04474339073628641</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3601384236521952</v>
+        <v>0.5476984463673702</v>
       </c>
       <c r="G24">
-        <v>0.0007904856929709315</v>
+        <v>0.002407722072461139</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1544345166056047</v>
+        <v>0.4070115348179435</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.358888880511842</v>
+        <v>0.4287971083813318</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6131199876140911</v>
+        <v>1.159663083696522</v>
       </c>
       <c r="O24">
-        <v>0.8743494370565656</v>
+        <v>1.813003537061732</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.042685684768884</v>
+        <v>0.3450456683714833</v>
       </c>
       <c r="C25">
-        <v>0.1562519254870551</v>
+        <v>0.05186574397218635</v>
       </c>
       <c r="D25">
-        <v>0.101686896203077</v>
+        <v>0.03820767978419326</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3303416008231821</v>
+        <v>0.5484011425458775</v>
       </c>
       <c r="G25">
-        <v>0.0007955490187491202</v>
+        <v>0.002410906475056687</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.162636980574538</v>
+        <v>0.4153595742022791</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.119027253205985</v>
+        <v>0.3541825752969885</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.647148535897486</v>
+        <v>1.175923614966436</v>
       </c>
       <c r="O25">
-        <v>0.8544134690004483</v>
+        <v>1.836307967720614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_202/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_202/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2935490919770132</v>
+        <v>0.8764340013512708</v>
       </c>
       <c r="C2">
-        <v>0.04457165816555175</v>
+        <v>0.13345894270374</v>
       </c>
       <c r="D2">
-        <v>0.03334822985983266</v>
+        <v>0.0870086160283563</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5500782417717929</v>
+        <v>0.3110524925290221</v>
       </c>
       <c r="G2">
-        <v>0.002413447129026704</v>
+        <v>0.0007994559427008439</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4222757950674723</v>
+        <v>0.1703008776651878</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2990256334740593</v>
+        <v>0.9425758409074376</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.189236620751288</v>
+        <v>0.6751222455794306</v>
       </c>
       <c r="O2">
-        <v>1.857100913325638</v>
+        <v>0.8477632128095252</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2585797311558338</v>
+        <v>0.7637499070274885</v>
       </c>
       <c r="C3">
-        <v>0.03959081992960023</v>
+        <v>0.1179917018606602</v>
       </c>
       <c r="D3">
-        <v>0.03002597117231431</v>
+        <v>0.0770303728493289</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5519381186377856</v>
+        <v>0.2994627311754954</v>
       </c>
       <c r="G3">
-        <v>0.002415292165664462</v>
+        <v>0.0008022197059232017</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4274429606471148</v>
+        <v>0.176427730010607</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2615162650164677</v>
+        <v>0.8229334298177662</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.199097099743849</v>
+        <v>0.6957947032812406</v>
       </c>
       <c r="O3">
-        <v>1.873458363975587</v>
+        <v>0.8477971190808944</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2370770665903308</v>
+        <v>0.6945113996710575</v>
       </c>
       <c r="C4">
-        <v>0.03651435465314989</v>
+        <v>0.108477966558965</v>
       </c>
       <c r="D4">
-        <v>0.02797201785985237</v>
+        <v>0.07088564449925627</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5534368788419073</v>
+        <v>0.2930247632540741</v>
       </c>
       <c r="G4">
-        <v>0.002416486112989779</v>
+        <v>0.0008039752761794052</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.430852329168431</v>
+        <v>0.1806246083642105</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2384247619132083</v>
+        <v>0.7493961261928916</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.205565533908441</v>
+        <v>0.7093000434523553</v>
       </c>
       <c r="O4">
-        <v>1.884619283030048</v>
+        <v>0.8499119216017448</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2283073025316469</v>
+        <v>0.6662780094601146</v>
       </c>
       <c r="C5">
-        <v>0.03525616233703488</v>
+        <v>0.1045959383141053</v>
       </c>
       <c r="D5">
-        <v>0.0271315237780172</v>
+        <v>0.06837670952432973</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5541373771130296</v>
+        <v>0.2905642692017949</v>
       </c>
       <c r="G5">
-        <v>0.002416988060423152</v>
+        <v>0.0008047056150542037</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4323011847498197</v>
+        <v>0.1824406303223487</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2290001859672941</v>
+        <v>0.7194038229845745</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.208305678571108</v>
+        <v>0.7150030651778216</v>
       </c>
       <c r="O5">
-        <v>1.889448394448493</v>
+        <v>0.8512795474325969</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2268506702042998</v>
+        <v>0.6615886247358276</v>
       </c>
       <c r="C6">
-        <v>0.03504697030781756</v>
+        <v>0.1039509974570052</v>
       </c>
       <c r="D6">
-        <v>0.02699175089325223</v>
+        <v>0.06795979587971601</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5542591151725276</v>
+        <v>0.2901653386397527</v>
       </c>
       <c r="G6">
-        <v>0.002417072340332862</v>
+        <v>0.000804827794416808</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4325453600367783</v>
+        <v>0.182748463809828</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2274343791988969</v>
+        <v>0.7144219284544135</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.208766973819781</v>
+        <v>0.7159619597104303</v>
       </c>
       <c r="O6">
-        <v>1.890267232375194</v>
+        <v>0.851536600679708</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2369588230255602</v>
+        <v>0.694130714852065</v>
       </c>
       <c r="C7">
-        <v>0.03649740438989113</v>
+        <v>0.1084256339615308</v>
       </c>
       <c r="D7">
-        <v>0.02796069673581059</v>
+        <v>0.07085182847435334</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5534459626152923</v>
+        <v>0.2929909297770905</v>
       </c>
       <c r="G7">
-        <v>0.002416492820308932</v>
+        <v>0.0008039850650244096</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4308716280022971</v>
+        <v>0.1806486763333393</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2382977170606324</v>
+        <v>0.7489917495052083</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.205602066418571</v>
+        <v>0.7093761548691759</v>
       </c>
       <c r="O7">
-        <v>1.884683272610332</v>
+        <v>0.8499283446021906</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.281498525036028</v>
+        <v>0.8375874313590828</v>
       </c>
       <c r="C8">
-        <v>0.04285808615233577</v>
+        <v>0.1281287697584617</v>
       </c>
       <c r="D8">
-        <v>0.03220566343152598</v>
+        <v>0.08357163189660355</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5506454892541015</v>
+        <v>0.306910972399244</v>
       </c>
       <c r="G8">
-        <v>0.002414070644902575</v>
+        <v>0.0008003968420551011</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4240082982276583</v>
+        <v>0.1723209227383524</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2861053517272865</v>
+        <v>0.9013352078271737</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.192550627687559</v>
+        <v>0.6820785617450369</v>
       </c>
       <c r="O8">
-        <v>1.862509033383077</v>
+        <v>0.8473275724037421</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3685687087306064</v>
+        <v>1.118788366698908</v>
       </c>
       <c r="C9">
-        <v>0.05518428851182478</v>
+        <v>0.1666777053259096</v>
       </c>
       <c r="D9">
-        <v>0.04041664521025723</v>
+        <v>0.1083906995114461</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.547984267417938</v>
+        <v>0.3399434515620499</v>
       </c>
       <c r="G9">
-        <v>0.002409803484515777</v>
+        <v>0.0007938162646688167</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4124279624439708</v>
+        <v>0.1596105270517647</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3793514906310804</v>
+        <v>1.199778387519018</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.170238259266817</v>
+        <v>0.6352178869257941</v>
       </c>
       <c r="O9">
-        <v>1.827893189477791</v>
+        <v>0.8598171268180295</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4323479115265627</v>
+        <v>1.32574664589302</v>
       </c>
       <c r="C10">
-        <v>0.06414803387042411</v>
+        <v>0.1950139146482002</v>
       </c>
       <c r="D10">
-        <v>0.0463783453306803</v>
+        <v>0.1265784961241536</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5477548853551895</v>
+        <v>0.3682246235457853</v>
       </c>
       <c r="G10">
-        <v>0.002406959897230769</v>
+        <v>0.0007892461184276419</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4050656851707721</v>
+        <v>0.1527232444560269</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4475264653480622</v>
+        <v>1.419329895392792</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.155840378973146</v>
+        <v>0.6051787707976359</v>
       </c>
       <c r="O10">
-        <v>1.807870475696276</v>
+        <v>0.8811324805208898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4613161491629967</v>
+        <v>1.420078608038807</v>
       </c>
       <c r="C11">
-        <v>0.06820531245364236</v>
+        <v>0.2079244249122496</v>
       </c>
       <c r="D11">
-        <v>0.04907472939170532</v>
+        <v>0.1348493218593347</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5480253861708348</v>
+        <v>0.3820817568339976</v>
       </c>
       <c r="G11">
-        <v>0.002405728980213843</v>
+        <v>0.0007872214216419482</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4019653067373596</v>
+        <v>0.1501788715625345</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4784637044757574</v>
+        <v>1.519383898459893</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.149722489756314</v>
+        <v>0.5925415672723489</v>
       </c>
       <c r="O11">
-        <v>1.799937080743561</v>
+        <v>0.8937952841922794</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4722785977968726</v>
+        <v>1.455835096209711</v>
       </c>
       <c r="C12">
-        <v>0.06973870583503583</v>
+        <v>0.2128176353600679</v>
       </c>
       <c r="D12">
-        <v>0.05009349086955694</v>
+        <v>0.1379814189522222</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5481817118637764</v>
+        <v>0.3874822504283841</v>
       </c>
       <c r="G12">
-        <v>0.00240527182791948</v>
+        <v>0.0007864622665183907</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4008270606173916</v>
+        <v>0.1493050340330235</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4901673469138359</v>
+        <v>1.557307033372695</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.147467818691993</v>
+        <v>0.587910669513299</v>
       </c>
       <c r="O12">
-        <v>1.797101940213224</v>
+        <v>0.8990460048190556</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4699179692720463</v>
+        <v>1.448132600311624</v>
       </c>
       <c r="C13">
-        <v>0.06940859728059934</v>
+        <v>0.2117635815923222</v>
       </c>
       <c r="D13">
-        <v>0.04987418554155454</v>
+        <v>0.1373068518898748</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5481456475958453</v>
+        <v>0.3863121755310175</v>
       </c>
       <c r="G13">
-        <v>0.002405369885451027</v>
+        <v>0.0007866254323972512</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4010706096198611</v>
+        <v>0.1494891602205364</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4876472860681247</v>
+        <v>1.549137905317849</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.147950643915635</v>
+        <v>0.5889010317617078</v>
       </c>
       <c r="O13">
-        <v>1.797705017799601</v>
+        <v>0.8978944256876247</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4622181845377042</v>
+        <v>1.423019564191151</v>
       </c>
       <c r="C14">
-        <v>0.06833152643385176</v>
+        <v>0.2083268982615749</v>
       </c>
       <c r="D14">
-        <v>0.04915858993018674</v>
+        <v>0.1351069959123379</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5480371671456936</v>
+        <v>0.3825229283537155</v>
       </c>
       <c r="G14">
-        <v>0.002405691190600271</v>
+        <v>0.0007871588157569359</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4018709448967641</v>
+        <v>0.1501051538245335</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4794268070725423</v>
+        <v>1.522503104471326</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.149535753491001</v>
+        <v>0.5921574434180812</v>
       </c>
       <c r="O14">
-        <v>1.799700443195547</v>
+        <v>0.8942179612352135</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4575008867189467</v>
+        <v>1.40764192231245</v>
       </c>
       <c r="C15">
-        <v>0.06767139507496722</v>
+        <v>0.2062224304339964</v>
       </c>
       <c r="D15">
-        <v>0.04871996573632487</v>
+        <v>0.1337595518810417</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.547977737874632</v>
+        <v>0.3802221634734835</v>
       </c>
       <c r="G15">
-        <v>0.002405889166104409</v>
+        <v>0.0007874865043649965</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4023658364166636</v>
+        <v>0.1504942974969019</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4743899923327035</v>
+        <v>1.506193340907117</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.150514757016495</v>
+        <v>0.5941724213806481</v>
       </c>
       <c r="O15">
-        <v>1.800944718768847</v>
+        <v>0.8920262418082672</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4304537998334013</v>
+        <v>1.319586264439607</v>
       </c>
       <c r="C16">
-        <v>0.0638824643393292</v>
+        <v>0.1941707043495597</v>
       </c>
       <c r="D16">
-        <v>0.04620181129507728</v>
+        <v>0.126037964639778</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.547744749580815</v>
+        <v>0.3673398681289939</v>
       </c>
       <c r="G16">
-        <v>0.002407041597940672</v>
+        <v>0.00078937950811026</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4052733103112338</v>
+        <v>0.1529017931873931</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4455030565208347</v>
+        <v>1.412795497054077</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.156248881725048</v>
+        <v>0.6060258912611971</v>
       </c>
       <c r="O16">
-        <v>1.808412594643073</v>
+        <v>0.8803670720229633</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.413849210709202</v>
+        <v>1.265620258377595</v>
       </c>
       <c r="C17">
-        <v>0.06155280270046148</v>
+        <v>0.1867834847957255</v>
       </c>
       <c r="D17">
-        <v>0.04465296521908613</v>
+        <v>0.1213006475084342</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.5476978197700006</v>
+        <v>0.3596983095527193</v>
       </c>
       <c r="G17">
-        <v>0.002407764594585449</v>
+        <v>0.0007905545327845376</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4071206849023952</v>
+        <v>0.154532971016021</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4277619163696897</v>
+        <v>1.35555106589166</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.159877135269937</v>
+        <v>0.613565529279505</v>
       </c>
       <c r="O17">
-        <v>1.813294918201422</v>
+        <v>0.8739944523942569</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4042944730280169</v>
+        <v>1.234597376766516</v>
       </c>
       <c r="C18">
-        <v>0.06021093002752309</v>
+        <v>0.182536367108284</v>
       </c>
       <c r="D18">
-        <v>0.04376064262885393</v>
+        <v>0.118575561895355</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5477061100987584</v>
+        <v>0.355395788281939</v>
       </c>
       <c r="G18">
-        <v>0.002408186341605349</v>
+        <v>0.0007912355012863747</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4082066585233761</v>
+        <v>0.1555262760284251</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.417550579950273</v>
+        <v>1.322641840412274</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.162004654568456</v>
+        <v>0.6179984404257937</v>
       </c>
       <c r="O18">
-        <v>1.81621369616704</v>
+        <v>0.8706064642192786</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.401058699696506</v>
+        <v>1.224096226506163</v>
       </c>
       <c r="C19">
-        <v>0.05975626889554064</v>
+        <v>0.1810986377552837</v>
       </c>
       <c r="D19">
-        <v>0.04345826716863144</v>
+        <v>0.1176528264971353</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5477149772487024</v>
+        <v>0.3539546404496647</v>
       </c>
       <c r="G19">
-        <v>0.002408330152320549</v>
+        <v>0.0007914669533906253</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4085783707917052</v>
+        <v>0.1558719063011687</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4140919986084839</v>
+        <v>1.311501866539032</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.162731978173653</v>
+        <v>0.6195156896458656</v>
       </c>
       <c r="O19">
-        <v>1.817220936037401</v>
+        <v>0.8695061304681388</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4156172390185873</v>
+        <v>1.271363220308245</v>
       </c>
       <c r="C20">
-        <v>0.06180099771914627</v>
+        <v>0.1875696694123263</v>
       </c>
       <c r="D20">
-        <v>0.04481799477794368</v>
+        <v>0.1218049709391522</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5476991639258486</v>
+        <v>0.3605020983171272</v>
       </c>
       <c r="G20">
-        <v>0.002407687020034088</v>
+        <v>0.0007904289206978967</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4069216053965654</v>
+        <v>0.1543535918292598</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4296512311408094</v>
+        <v>1.361643086653913</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.159486695360471</v>
+        <v>0.6127529064031307</v>
       </c>
       <c r="O20">
-        <v>1.812763739705403</v>
+        <v>0.8746439163077184</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4644799986984367</v>
+        <v>1.430394851925087</v>
       </c>
       <c r="C21">
-        <v>0.06864797057968985</v>
+        <v>0.2093362078361451</v>
       </c>
       <c r="D21">
-        <v>0.04936884057775615</v>
+        <v>0.1357531394272087</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5480675679293654</v>
+        <v>0.3836316807596987</v>
       </c>
       <c r="G21">
-        <v>0.00240559657230638</v>
+        <v>0.0007870019451060909</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4016348951985087</v>
+        <v>0.1499217469294329</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4818416819609297</v>
+        <v>1.53032536922035</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.149068484991481</v>
+        <v>0.5911967066909298</v>
       </c>
       <c r="O21">
-        <v>1.799109749293308</v>
+        <v>0.8952852237742803</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4963723835095095</v>
+        <v>1.534539632011644</v>
       </c>
       <c r="C22">
-        <v>0.07310528155139195</v>
+        <v>0.2235875621185244</v>
       </c>
       <c r="D22">
-        <v>0.05232964626880232</v>
+        <v>0.1448700134228602</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5486224649527003</v>
+        <v>0.3996458547883961</v>
       </c>
       <c r="G22">
-        <v>0.002404282604999409</v>
+        <v>0.0007848061192342295</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3983884068823755</v>
+        <v>0.1475504161839609</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5158831095178016</v>
+        <v>1.640776859606547</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.14262118251618</v>
+        <v>0.5780126408484492</v>
       </c>
       <c r="O22">
-        <v>1.79117155399797</v>
+        <v>0.9114457224697219</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4793549112376922</v>
+        <v>1.478933628701185</v>
       </c>
       <c r="C23">
-        <v>0.07072796601600828</v>
+        <v>0.215978516820158</v>
       </c>
       <c r="D23">
-        <v>0.05075065575985604</v>
+        <v>0.1400038962420638</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.548297567163047</v>
+        <v>0.391013041162374</v>
       </c>
       <c r="G23">
-        <v>0.002404979125061675</v>
+        <v>0.0007859741428645536</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4001020149059933</v>
+        <v>0.1487662637457099</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.497721018264059</v>
+        <v>1.581804615570121</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.146029158217296</v>
+        <v>0.5849641685057989</v>
       </c>
       <c r="O23">
-        <v>1.795318116196484</v>
+        <v>0.9025662082977988</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4148179399627452</v>
+        <v>1.268766818827714</v>
       </c>
       <c r="C24">
-        <v>0.06168879659279014</v>
+        <v>0.1872142357823208</v>
       </c>
       <c r="D24">
-        <v>0.04474339073628641</v>
+        <v>0.1215769711491106</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5476984463673702</v>
+        <v>0.3601384236522094</v>
       </c>
       <c r="G24">
-        <v>0.002407722072461139</v>
+        <v>0.0007904856929693261</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4070115348179435</v>
+        <v>0.1544345166056296</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4287971083813318</v>
+        <v>1.358888880511756</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.159663083696522</v>
+        <v>0.613119987614013</v>
       </c>
       <c r="O24">
-        <v>1.813003537061732</v>
+        <v>0.8743494370566083</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3450456683714833</v>
+        <v>1.042685684768884</v>
       </c>
       <c r="C25">
-        <v>0.05186574397218635</v>
+        <v>0.1562519254869699</v>
       </c>
       <c r="D25">
-        <v>0.03820767978419326</v>
+        <v>0.1016868962029562</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5484011425458775</v>
+        <v>0.3303416008231679</v>
       </c>
       <c r="G25">
-        <v>0.002410906475056687</v>
+        <v>0.0007955490186907574</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4153595742022791</v>
+        <v>0.1626369805745522</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3541825752969885</v>
+        <v>1.11902725320607</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.175923614966436</v>
+        <v>0.647148535897486</v>
       </c>
       <c r="O25">
-        <v>1.836307967720614</v>
+        <v>0.8544134690004341</v>
       </c>
     </row>
   </sheetData>
